--- a/SRL_Player_Data.xlsx
+++ b/SRL_Player_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\Team_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\main\MatchConRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PlayerCountryList.asp?Country_SRL_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$48</definedName>
+    <definedName name="PlayerCountryList.asp?Country_SRL_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="227">
   <si>
     <t>Name</t>
   </si>
@@ -215,12 +215,6 @@
     <t>3/32</t>
   </si>
   <si>
-    <t>P W H de Silva*</t>
-  </si>
-  <si>
-    <t>Wanindu Hasaranga de Silva</t>
-  </si>
-  <si>
     <t>29/07/1997</t>
   </si>
   <si>
@@ -419,27 +413,9 @@
     <t>10*</t>
   </si>
   <si>
-    <t>3/22</t>
-  </si>
-  <si>
-    <t>R A S Lakmal*</t>
-  </si>
-  <si>
-    <t>Suranga Lakmal</t>
-  </si>
-  <si>
-    <t>10/03/1987</t>
-  </si>
-  <si>
-    <t>2009-</t>
-  </si>
-  <si>
     <t>26*</t>
   </si>
   <si>
-    <t>4/13</t>
-  </si>
-  <si>
     <t>P A D Lakshan*</t>
   </si>
   <si>
@@ -461,9 +437,6 @@
     <t>Janith Liyanage</t>
   </si>
   <si>
-    <t>95*</t>
-  </si>
-  <si>
     <t>1/17</t>
   </si>
   <si>
@@ -590,21 +563,6 @@
     <t>135*</t>
   </si>
   <si>
-    <t>N L T C Perera*</t>
-  </si>
-  <si>
-    <t>Thisara Perera</t>
-  </si>
-  <si>
-    <t>03/04/1989</t>
-  </si>
-  <si>
-    <t>140*</t>
-  </si>
-  <si>
-    <t>6/44</t>
-  </si>
-  <si>
     <t>N Pradeep*</t>
   </si>
   <si>
@@ -752,7 +710,16 @@
     <t>5/40</t>
   </si>
   <si>
-    <t>Total Players = 46</t>
+    <t>4/48</t>
+  </si>
+  <si>
+    <t>Wanindu Hasaranga*</t>
+  </si>
+  <si>
+    <t>Wanindu Hasaranga</t>
+  </si>
+  <si>
+    <t>Total Players = 44</t>
   </si>
 </sst>
 </file>
@@ -1074,14 +1041,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1157,13 +1124,13 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>1772</v>
+        <v>1918</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1172,7 +1139,7 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>43.22</v>
+        <v>43.59</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1181,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.8</v>
+        <v>33.4</v>
       </c>
       <c r="N2">
-        <v>5.0199999999999996</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
@@ -1512,219 +1479,219 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F10">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>846</v>
+        <v>1604</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
       </c>
       <c r="J10">
-        <v>23.5</v>
+        <v>31.45</v>
       </c>
       <c r="K10">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>26.1</v>
-      </c>
-      <c r="N10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="O10" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>1604</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>31.45</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s">
-        <v>24</v>
+      <c r="M11">
+        <v>53.8</v>
+      </c>
+      <c r="N11">
+        <v>5.98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12">
+        <v>8.67</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>68</v>
       </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>53.8</v>
-      </c>
       <c r="N12">
-        <v>5.98</v>
+        <v>5.37</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J13">
-        <v>8.67</v>
+        <v>18.5</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>68</v>
+      <c r="M13" t="s">
+        <v>24</v>
       </c>
       <c r="N13">
-        <v>5.37</v>
+        <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J14">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1735,43 +1702,40 @@
       <c r="M14" t="s">
         <v>24</v>
       </c>
-      <c r="N14">
-        <v>8</v>
-      </c>
-      <c r="O14" t="s">
-        <v>81</v>
+      <c r="N14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>75</v>
+        <v>1215</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J15">
-        <v>18.75</v>
+        <v>31.97</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1788,34 +1752,34 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J16">
-        <v>33.659999999999997</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1826,381 +1790,384 @@
       <c r="M16" t="s">
         <v>24</v>
       </c>
-      <c r="N16" t="s">
-        <v>24</v>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1601</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>35.58</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>24</v>
+      <c r="M17">
+        <v>46.38</v>
       </c>
       <c r="N17">
-        <v>8</v>
+        <v>5.54</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E18">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>1601</v>
+        <v>39</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18">
+        <v>19.5</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18">
-        <v>35.58</v>
-      </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>46.38</v>
+        <v>96.5</v>
       </c>
       <c r="N18">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J19">
-        <v>19.5</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>96.5</v>
+        <v>35.4</v>
       </c>
       <c r="N19">
-        <v>5.51</v>
+        <v>5.36</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>451</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>25.06</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>35.4</v>
+        <v>31.71</v>
       </c>
       <c r="N20">
-        <v>5.36</v>
+        <v>5.64</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E21">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F21">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>1316</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21">
+        <v>31.33</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
         <v>24</v>
       </c>
-      <c r="G21">
-        <v>451</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21">
-        <v>25.06</v>
-      </c>
-      <c r="K21">
-        <v>24</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>31.71</v>
-      </c>
       <c r="N21">
-        <v>5.64</v>
+        <v>6.75</v>
       </c>
       <c r="O21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F22">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G22">
-        <v>1316</v>
+        <v>61</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22">
+        <v>5.55</v>
+      </c>
+      <c r="K22">
+        <v>42</v>
+      </c>
+      <c r="L22">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22">
-        <v>31.33</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>24</v>
+      <c r="M22">
+        <v>32.29</v>
       </c>
       <c r="N22">
-        <v>6.75</v>
+        <v>6.44</v>
       </c>
       <c r="O22" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J23">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>33.049999999999997</v>
+        <v>76</v>
       </c>
       <c r="N23">
-        <v>6.49</v>
+        <v>6.91</v>
       </c>
       <c r="O23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>346</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>101</v>
+      </c>
+      <c r="J24">
+        <v>69.2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>129</v>
       </c>
-      <c r="D24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24">
-        <v>86</v>
-      </c>
-      <c r="F24">
-        <v>48</v>
-      </c>
-      <c r="G24">
-        <v>244</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="K24">
-        <v>109</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>32.42</v>
-      </c>
       <c r="N24">
-        <v>5.46</v>
+        <v>6.05</v>
       </c>
       <c r="O24" t="s">
         <v>132</v>
@@ -2217,16 +2184,16 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2235,19 +2202,19 @@
         <v>136</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="K25">
+        <v>13</v>
+      </c>
+      <c r="L25">
         <v>1</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
-        <v>76</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="N25">
-        <v>6.91</v>
+        <v>7.06</v>
       </c>
       <c r="O25" t="s">
         <v>137</v>
@@ -2261,181 +2228,181 @@
         <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J26">
-        <v>56.33</v>
+        <v>12</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>77</v>
+        <v>24.88</v>
       </c>
       <c r="N26">
-        <v>6.42</v>
+        <v>5.9</v>
       </c>
       <c r="O26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="F27">
+        <v>195</v>
+      </c>
+      <c r="G27">
+        <v>5916</v>
+      </c>
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="G27">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>145</v>
+      <c r="I27">
+        <v>139</v>
       </c>
       <c r="J27">
-        <v>5.67</v>
+        <v>40.24</v>
       </c>
       <c r="K27">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>22.64</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="N27">
-        <v>6.85</v>
+        <v>4.63</v>
       </c>
       <c r="O27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G28">
-        <v>36</v>
+        <v>3859</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J28">
-        <v>18</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="K28">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <v>25.57</v>
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
       </c>
       <c r="N28">
-        <v>5.97</v>
+        <v>8.4</v>
       </c>
       <c r="O28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>127</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
         <v>155</v>
       </c>
-      <c r="E29">
-        <v>226</v>
-      </c>
-      <c r="F29">
-        <v>195</v>
-      </c>
-      <c r="G29">
-        <v>5916</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>139</v>
-      </c>
       <c r="J29">
-        <v>40.24</v>
+        <v>21.17</v>
       </c>
       <c r="K29">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>32.619999999999997</v>
+        <v>75.5</v>
       </c>
       <c r="N29">
-        <v>4.63</v>
+        <v>6.04</v>
       </c>
       <c r="O29" t="s">
         <v>156</v>
@@ -2452,166 +2419,163 @@
         <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
         <v>124</v>
       </c>
-      <c r="G30">
-        <v>3755</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>18.5</v>
+      </c>
+      <c r="N30">
+        <v>6.17</v>
+      </c>
+      <c r="O30" t="s">
         <v>160</v>
-      </c>
-      <c r="J30">
-        <v>32.94</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30">
-        <v>8.4</v>
-      </c>
-      <c r="O30" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
         <v>162</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>163</v>
       </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G31">
-        <v>127</v>
+        <v>2225</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>164</v>
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>210</v>
       </c>
       <c r="J31">
-        <v>21.17</v>
+        <v>44.5</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>75.5</v>
-      </c>
-      <c r="N31">
-        <v>6.04</v>
-      </c>
-      <c r="O31" t="s">
-        <v>165</v>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
         <v>166</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
         <v>167</v>
       </c>
-      <c r="C32" t="s">
+      <c r="J32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K32">
+        <v>17</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>36.24</v>
+      </c>
+      <c r="N32">
+        <v>7.28</v>
+      </c>
+      <c r="O32" t="s">
         <v>168</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>50</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32">
-        <v>25</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>18.5</v>
-      </c>
-      <c r="N32">
-        <v>6.17</v>
-      </c>
-      <c r="O32" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" t="s">
         <v>170</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>171</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>172</v>
       </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
       <c r="E33">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F33">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="G33">
-        <v>2074</v>
+        <v>3237</v>
       </c>
       <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>210</v>
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>173</v>
       </c>
       <c r="J33">
-        <v>44.13</v>
+        <v>30.54</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2628,81 +2592,81 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J34">
-        <v>2.2000000000000002</v>
+        <v>4.38</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>36.24</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="N34">
-        <v>7.28</v>
+        <v>5.98</v>
       </c>
       <c r="O34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>3237</v>
+        <v>89</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
         <v>182</v>
       </c>
       <c r="J35">
-        <v>30.54</v>
+        <v>17.8</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2728,84 +2692,84 @@
         <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="E36">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="F36">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="G36">
-        <v>2338</v>
+        <v>117</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J36">
-        <v>19.98</v>
+        <v>9.75</v>
       </c>
       <c r="K36">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>32.799999999999997</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="N36">
-        <v>5.86</v>
+        <v>6.1</v>
       </c>
       <c r="O36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="J37">
-        <v>4.38</v>
+        <v>29.67</v>
       </c>
       <c r="K37">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>37.130000000000003</v>
+        <v>28</v>
       </c>
       <c r="N37">
-        <v>5.98</v>
+        <v>4</v>
       </c>
       <c r="O37" t="s">
         <v>192</v>
@@ -2822,25 +2786,25 @@
         <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G38">
-        <v>89</v>
+        <v>1170</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
         <v>196</v>
       </c>
       <c r="J38">
-        <v>17.8</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2866,210 +2830,213 @@
         <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F39">
         <v>19</v>
       </c>
       <c r="G39">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>201</v>
+      <c r="I39">
+        <v>16</v>
       </c>
       <c r="J39">
-        <v>9.75</v>
+        <v>5.33</v>
       </c>
       <c r="K39">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>36.119999999999997</v>
+        <v>57</v>
       </c>
       <c r="N39">
-        <v>6.1</v>
+        <v>6.21</v>
       </c>
       <c r="O39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
         <v>203</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>71</v>
+      </c>
+      <c r="F40">
+        <v>63</v>
+      </c>
+      <c r="G40">
+        <v>1299</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>108</v>
+      </c>
+      <c r="J40">
+        <v>22.4</v>
+      </c>
+      <c r="K40">
+        <v>27</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>37</v>
+      </c>
+      <c r="N40">
+        <v>5.68</v>
+      </c>
+      <c r="O40" t="s">
         <v>204</v>
-      </c>
-      <c r="C40" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>89</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40">
-        <v>29.67</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>28</v>
-      </c>
-      <c r="N40">
-        <v>4</v>
-      </c>
-      <c r="O40" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" t="s">
         <v>207</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>264</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>16.5</v>
+      </c>
+      <c r="K41">
+        <v>55</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>29.51</v>
+      </c>
+      <c r="N41">
+        <v>4.63</v>
+      </c>
+      <c r="O41" t="s">
         <v>208</v>
-      </c>
-      <c r="C41" t="s">
-        <v>209</v>
-      </c>
-      <c r="D41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41">
-        <v>38</v>
-      </c>
-      <c r="F41">
-        <v>35</v>
-      </c>
-      <c r="G41">
-        <v>1152</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>210</v>
-      </c>
-      <c r="J41">
-        <v>38.4</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s">
         <v>211</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>18</v>
+      </c>
+      <c r="G42">
+        <v>237</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
         <v>212</v>
       </c>
-      <c r="C42" t="s">
+      <c r="J42">
+        <v>16.93</v>
+      </c>
+      <c r="K42">
+        <v>18</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>52.78</v>
+      </c>
+      <c r="N42">
+        <v>6.27</v>
+      </c>
+      <c r="O42" t="s">
         <v>213</v>
-      </c>
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42">
-        <v>31</v>
-      </c>
-      <c r="F42">
-        <v>19</v>
-      </c>
-      <c r="G42">
-        <v>64</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>16</v>
-      </c>
-      <c r="J42">
-        <v>5.33</v>
-      </c>
-      <c r="K42">
-        <v>27</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>57</v>
-      </c>
-      <c r="N42">
-        <v>6.21</v>
-      </c>
-      <c r="O42" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" t="s">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>216</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43">
+        <v>22</v>
+      </c>
+      <c r="F43">
+        <v>14</v>
+      </c>
+      <c r="G43">
+        <v>111</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
         <v>217</v>
       </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43">
-        <v>71</v>
-      </c>
-      <c r="F43">
-        <v>63</v>
-      </c>
-      <c r="G43">
-        <v>1299</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>108</v>
-      </c>
       <c r="J43">
-        <v>22.4</v>
+        <v>11.1</v>
       </c>
       <c r="K43">
         <v>27</v>
@@ -3078,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>31.41</v>
       </c>
       <c r="N43">
-        <v>5.68</v>
+        <v>5.51</v>
       </c>
       <c r="O43" t="s">
         <v>218</v>
@@ -3089,195 +3056,101 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F44">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G44">
-        <v>248</v>
+        <v>895</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J44">
-        <v>17.71</v>
+        <v>22.95</v>
       </c>
       <c r="K44">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M44">
-        <v>28.02</v>
+        <v>26.18</v>
       </c>
       <c r="N44">
-        <v>4.6500000000000004</v>
+        <v>5.16</v>
       </c>
       <c r="O44" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E45">
         <v>21</v>
       </c>
       <c r="F45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>226</v>
+      <c r="I45">
+        <v>42</v>
       </c>
       <c r="J45">
-        <v>16.93</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="K45">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>52.78</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="N45">
-        <v>6.27</v>
+        <v>5.35</v>
       </c>
       <c r="O45" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46">
-        <v>22</v>
-      </c>
-      <c r="F46">
-        <v>14</v>
-      </c>
-      <c r="G46">
-        <v>111</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>231</v>
-      </c>
-      <c r="J46">
-        <v>11.1</v>
-      </c>
-      <c r="K46">
-        <v>27</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>31.41</v>
-      </c>
-      <c r="N46">
-        <v>5.51</v>
-      </c>
-      <c r="O46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>233</v>
-      </c>
-      <c r="B47" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47">
-        <v>19</v>
-      </c>
-      <c r="F47">
-        <v>15</v>
-      </c>
-      <c r="G47">
-        <v>207</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>42</v>
-      </c>
-      <c r="J47">
-        <v>17.25</v>
-      </c>
-      <c r="K47">
-        <v>23</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>31.13</v>
-      </c>
-      <c r="N47">
-        <v>5.41</v>
-      </c>
-      <c r="O47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
